--- a/data/cases.xlsx
+++ b/data/cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16605" windowHeight="9300"/>
+    <workbookView windowWidth="16605" windowHeight="8700"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>case_id</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>headers</t>
+  </si>
+  <si>
+    <t>result</t>
   </si>
   <si>
     <t>注册</t>
@@ -80,8 +83,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -94,77 +97,91 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,6 +202,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -194,6 +219,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -201,36 +234,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -247,187 +250,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,6 +441,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -456,26 +474,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,30 +518,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -530,11 +526,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,10 +549,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -558,133 +561,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1040,10 +1043,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -1057,7 +1060,7 @@
     <col min="10" max="10" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1084,6 +1087,9 @@
       </c>
       <c r="I1" t="s">
         <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1091,25 +1097,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1117,19 +1123,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
         <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:1">

--- a/data/cases.xlsx
+++ b/data/cases.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16605" windowHeight="8700"/>
+    <workbookView windowWidth="16605" windowHeight="8700" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="recharge" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
   <si>
     <t>case_id</t>
   </si>
@@ -76,6 +76,27 @@
   </si>
   <si>
     <t>{"mobliephone": "123456", "pwd": "123"}</t>
+  </si>
+  <si>
+    <t>interface</t>
+  </si>
+  <si>
+    <t>充值</t>
+  </si>
+  <si>
+    <t>负数</t>
+  </si>
+  <si>
+    <t>/member/recharge</t>
+  </si>
+  <si>
+    <t>{"member_id":"#member_id#","amount:-1"}</t>
+  </si>
+  <si>
+    <t>字母</t>
+  </si>
+  <si>
+    <t>{"member_id":"#member_id#","amount:abc"}</t>
   </si>
 </sst>
 </file>
@@ -83,8 +104,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -98,7 +119,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -111,86 +132,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -202,6 +170,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -218,6 +239,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -227,15 +255,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,127 +271,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,55 +445,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,21 +462,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -491,11 +497,42 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,27 +554,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,10 +570,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -561,133 +582,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1045,8 +1066,8 @@
   <sheetPr/>
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -1163,14 +1184,91 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="5" max="5" width="20.125" customWidth="1"/>
+    <col min="6" max="6" width="41.375" customWidth="1"/>
+    <col min="7" max="7" width="30.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
